--- a/src/repo/tfvc/source_tfvc_folder_permissions.xlsx
+++ b/src/repo/tfvc/source_tfvc_folder_permissions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27258" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28029" uniqueCount="26">
   <si>
     <t>Permissions</t>
   </si>
